--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema3b-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema3b-Nrp2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.058809</v>
+        <v>3.336603</v>
       </c>
       <c r="H2">
-        <v>9.176427</v>
+        <v>10.009809</v>
       </c>
       <c r="I2">
-        <v>0.2545796684648062</v>
+        <v>0.2530037693731349</v>
       </c>
       <c r="J2">
-        <v>0.2545796684648062</v>
+        <v>0.253003769373135</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.56529466666667</v>
+        <v>60.538204</v>
       </c>
       <c r="N2">
-        <v>166.695884</v>
+        <v>181.614612</v>
       </c>
       <c r="O2">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="P2">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="Q2">
-        <v>169.963623414052</v>
+        <v>201.991953081012</v>
       </c>
       <c r="R2">
-        <v>1529.672610726468</v>
+        <v>1817.927577729108</v>
       </c>
       <c r="S2">
-        <v>0.1079493252460289</v>
+        <v>0.1549297791084115</v>
       </c>
       <c r="T2">
-        <v>0.107949325246029</v>
+        <v>0.1549297791084115</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.058809</v>
+        <v>3.336603</v>
       </c>
       <c r="H3">
-        <v>9.176427</v>
+        <v>10.009809</v>
       </c>
       <c r="I3">
-        <v>0.2545796684648062</v>
+        <v>0.2530037693731349</v>
       </c>
       <c r="J3">
-        <v>0.2545796684648062</v>
+        <v>0.253003769373135</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>32.525452</v>
       </c>
       <c r="O3">
-        <v>0.08273603031526086</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="P3">
-        <v>0.08273603031526088</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="Q3">
-        <v>33.163048435556</v>
+        <v>36.174840239852</v>
       </c>
       <c r="R3">
-        <v>298.467435920004</v>
+        <v>325.573562158668</v>
       </c>
       <c r="S3">
-        <v>0.02106291116775326</v>
+        <v>0.02774645188659842</v>
       </c>
       <c r="T3">
-        <v>0.02106291116775327</v>
+        <v>0.02774645188659843</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.058809</v>
+        <v>3.336603</v>
       </c>
       <c r="H4">
-        <v>9.176427</v>
+        <v>10.009809</v>
       </c>
       <c r="I4">
-        <v>0.2545796684648062</v>
+        <v>0.2530037693731349</v>
       </c>
       <c r="J4">
-        <v>0.2545796684648062</v>
+        <v>0.253003769373135</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.13853466666666</v>
+        <v>8.850437666666666</v>
       </c>
       <c r="N4">
-        <v>120.415604</v>
+        <v>26.551313</v>
       </c>
       <c r="O4">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="P4">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="Q4">
-        <v>122.776111085212</v>
+        <v>29.530396869913</v>
       </c>
       <c r="R4">
-        <v>1104.984999766908</v>
+        <v>265.773571829217</v>
       </c>
       <c r="S4">
-        <v>0.07797902916962859</v>
+        <v>0.02265009964136748</v>
       </c>
       <c r="T4">
-        <v>0.07797902916962861</v>
+        <v>0.02265009964136749</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.058809</v>
+        <v>3.336603</v>
       </c>
       <c r="H5">
-        <v>9.176427</v>
+        <v>10.009809</v>
       </c>
       <c r="I5">
-        <v>0.2545796684648062</v>
+        <v>0.2530037693731349</v>
       </c>
       <c r="J5">
-        <v>0.2545796684648062</v>
+        <v>0.253003769373135</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.607653333333333</v>
+        <v>1.757142</v>
       </c>
       <c r="N5">
-        <v>7.82296</v>
+        <v>5.271426</v>
       </c>
       <c r="O5">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="P5">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="Q5">
-        <v>7.97631348488</v>
+        <v>5.862885268626</v>
       </c>
       <c r="R5">
-        <v>71.78682136392</v>
+        <v>52.765967417634</v>
       </c>
       <c r="S5">
-        <v>0.005066011428492587</v>
+        <v>0.00449688963224136</v>
       </c>
       <c r="T5">
-        <v>0.005066011428492589</v>
+        <v>0.00449688963224136</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.058809</v>
+        <v>3.336603</v>
       </c>
       <c r="H6">
-        <v>9.176427</v>
+        <v>10.009809</v>
       </c>
       <c r="I6">
-        <v>0.2545796684648062</v>
+        <v>0.2530037693731349</v>
       </c>
       <c r="J6">
-        <v>0.2545796684648062</v>
+        <v>0.253003769373135</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.88776266666666</v>
+        <v>16.87263033333333</v>
       </c>
       <c r="N6">
-        <v>65.66328799999999</v>
+        <v>50.617891</v>
       </c>
       <c r="O6">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="P6">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="Q6">
-        <v>66.95048543466399</v>
+        <v>56.29726898809101</v>
       </c>
       <c r="R6">
-        <v>602.554368911976</v>
+        <v>506.675420892819</v>
       </c>
       <c r="S6">
-        <v>0.04252239145290276</v>
+        <v>0.04318054910451616</v>
       </c>
       <c r="T6">
-        <v>0.04252239145290276</v>
+        <v>0.04318054910451617</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>17.367157</v>
       </c>
       <c r="I7">
-        <v>0.4818133540686629</v>
+        <v>0.4389650376240971</v>
       </c>
       <c r="J7">
-        <v>0.4818133540686629</v>
+        <v>0.4389650376240971</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>55.56529466666667</v>
+        <v>60.538204</v>
       </c>
       <c r="N7">
-        <v>166.695884</v>
+        <v>181.614612</v>
       </c>
       <c r="O7">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="P7">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="Q7">
-        <v>321.6703987424209</v>
+        <v>350.4588311220093</v>
       </c>
       <c r="R7">
-        <v>2895.033588681788</v>
+        <v>3154.129480098084</v>
       </c>
       <c r="S7">
-        <v>0.204303143215965</v>
+        <v>0.2688053086478576</v>
       </c>
       <c r="T7">
-        <v>0.2043031432159651</v>
+        <v>0.2688053086478576</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>17.367157</v>
       </c>
       <c r="I8">
-        <v>0.4818133540686629</v>
+        <v>0.4389650376240971</v>
       </c>
       <c r="J8">
-        <v>0.4818133540686629</v>
+        <v>0.4389650376240971</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>32.525452</v>
       </c>
       <c r="O8">
-        <v>0.08273603031526086</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="P8">
-        <v>0.08273603031526088</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="Q8">
         <v>62.76384793110711</v>
@@ -948,10 +948,10 @@
         <v>564.8746313799639</v>
       </c>
       <c r="S8">
-        <v>0.0398633242685224</v>
+        <v>0.04814047761625631</v>
       </c>
       <c r="T8">
-        <v>0.03986332426852242</v>
+        <v>0.04814047761625632</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>17.367157</v>
       </c>
       <c r="I9">
-        <v>0.4818133540686629</v>
+        <v>0.4389650376240971</v>
       </c>
       <c r="J9">
-        <v>0.4818133540686629</v>
+        <v>0.4389650376240971</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>40.13853466666666</v>
+        <v>8.850437666666666</v>
       </c>
       <c r="N9">
-        <v>120.415604</v>
+        <v>26.551313</v>
       </c>
       <c r="O9">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="P9">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="Q9">
-        <v>232.3640777686475</v>
+        <v>51.23564682523789</v>
       </c>
       <c r="R9">
-        <v>2091.276699917828</v>
+        <v>461.120821427141</v>
       </c>
       <c r="S9">
-        <v>0.1475818466486487</v>
+        <v>0.03929823601402112</v>
       </c>
       <c r="T9">
-        <v>0.1475818466486487</v>
+        <v>0.03929823601402112</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>17.367157</v>
       </c>
       <c r="I10">
-        <v>0.4818133540686629</v>
+        <v>0.4389650376240971</v>
       </c>
       <c r="J10">
-        <v>0.4818133540686629</v>
+        <v>0.4389650376240971</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.607653333333333</v>
+        <v>1.757142</v>
       </c>
       <c r="N10">
-        <v>7.82296</v>
+        <v>5.271426</v>
       </c>
       <c r="O10">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="P10">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="Q10">
-        <v>15.09584161385778</v>
+        <v>10.172186995098</v>
       </c>
       <c r="R10">
-        <v>135.86257452472</v>
+        <v>91.54968295588199</v>
       </c>
       <c r="S10">
-        <v>0.009587851114864756</v>
+        <v>0.007802165681164141</v>
       </c>
       <c r="T10">
-        <v>0.009587851114864756</v>
+        <v>0.007802165681164141</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>17.367157</v>
       </c>
       <c r="I11">
-        <v>0.4818133540686629</v>
+        <v>0.4389650376240971</v>
       </c>
       <c r="J11">
-        <v>0.4818133540686629</v>
+        <v>0.4389650376240971</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.88776266666666</v>
+        <v>16.87263033333333</v>
       </c>
       <c r="N11">
-        <v>65.66328799999999</v>
+        <v>50.617891</v>
       </c>
       <c r="O11">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="P11">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="Q11">
-        <v>126.7094035369129</v>
+        <v>97.67654000065411</v>
       </c>
       <c r="R11">
-        <v>1140.384631832216</v>
+        <v>879.088860005887</v>
       </c>
       <c r="S11">
-        <v>0.08047718882066193</v>
+        <v>0.07491884966479795</v>
       </c>
       <c r="T11">
-        <v>0.08047718882066193</v>
+        <v>0.07491884966479795</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.00608</v>
+        <v>1.029432</v>
       </c>
       <c r="H12">
-        <v>3.01824</v>
+        <v>3.088296</v>
       </c>
       <c r="I12">
-        <v>0.08373439232363715</v>
+        <v>0.07805848532574147</v>
       </c>
       <c r="J12">
-        <v>0.08373439232363716</v>
+        <v>0.07805848532574149</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>55.56529466666667</v>
+        <v>60.538204</v>
       </c>
       <c r="N12">
-        <v>166.695884</v>
+        <v>181.614612</v>
       </c>
       <c r="O12">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="P12">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="Q12">
-        <v>55.90313165824001</v>
+        <v>62.319964420128</v>
       </c>
       <c r="R12">
-        <v>503.1281849241601</v>
+        <v>560.8796797811519</v>
       </c>
       <c r="S12">
-        <v>0.03550586425746911</v>
+        <v>0.04780001467574364</v>
       </c>
       <c r="T12">
-        <v>0.03550586425746911</v>
+        <v>0.04780001467574364</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.00608</v>
+        <v>1.029432</v>
       </c>
       <c r="H13">
-        <v>3.01824</v>
+        <v>3.088296</v>
       </c>
       <c r="I13">
-        <v>0.08373439232363715</v>
+        <v>0.07805848532574147</v>
       </c>
       <c r="J13">
-        <v>0.08373439232363716</v>
+        <v>0.07805848532574149</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>32.525452</v>
       </c>
       <c r="O13">
-        <v>0.08273603031526086</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="P13">
-        <v>0.08273603031526088</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="Q13">
-        <v>10.90773558272</v>
+        <v>11.160913701088</v>
       </c>
       <c r="R13">
-        <v>98.16962024448</v>
+        <v>100.448223309792</v>
       </c>
       <c r="S13">
-        <v>0.00692785122171839</v>
+        <v>0.008560528615038943</v>
       </c>
       <c r="T13">
-        <v>0.006927851221718392</v>
+        <v>0.008560528615038946</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.00608</v>
+        <v>1.029432</v>
       </c>
       <c r="H14">
-        <v>3.01824</v>
+        <v>3.088296</v>
       </c>
       <c r="I14">
-        <v>0.08373439232363715</v>
+        <v>0.07805848532574147</v>
       </c>
       <c r="J14">
-        <v>0.08373439232363716</v>
+        <v>0.07805848532574149</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>40.13853466666666</v>
+        <v>8.850437666666666</v>
       </c>
       <c r="N14">
-        <v>120.415604</v>
+        <v>26.551313</v>
       </c>
       <c r="O14">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="P14">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="Q14">
-        <v>40.38257695744</v>
+        <v>9.110923748071999</v>
       </c>
       <c r="R14">
-        <v>363.44319261696</v>
+        <v>81.998313732648</v>
       </c>
       <c r="S14">
-        <v>0.02564826429730655</v>
+        <v>0.006988166519664523</v>
       </c>
       <c r="T14">
-        <v>0.02564826429730655</v>
+        <v>0.006988166519664525</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.00608</v>
+        <v>1.029432</v>
       </c>
       <c r="H15">
-        <v>3.01824</v>
+        <v>3.088296</v>
       </c>
       <c r="I15">
-        <v>0.08373439232363715</v>
+        <v>0.07805848532574147</v>
       </c>
       <c r="J15">
-        <v>0.08373439232363716</v>
+        <v>0.07805848532574149</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.607653333333333</v>
+        <v>1.757142</v>
       </c>
       <c r="N15">
-        <v>7.82296</v>
+        <v>5.271426</v>
       </c>
       <c r="O15">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="P15">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="Q15">
-        <v>2.6235078656</v>
+        <v>1.808858203344</v>
       </c>
       <c r="R15">
-        <v>23.6115707904</v>
+        <v>16.279723830096</v>
       </c>
       <c r="S15">
-        <v>0.001666273630677111</v>
+        <v>0.001387411714218769</v>
       </c>
       <c r="T15">
-        <v>0.001666273630677111</v>
+        <v>0.001387411714218769</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.00608</v>
+        <v>1.029432</v>
       </c>
       <c r="H16">
-        <v>3.01824</v>
+        <v>3.088296</v>
       </c>
       <c r="I16">
-        <v>0.08373439232363715</v>
+        <v>0.07805848532574147</v>
       </c>
       <c r="J16">
-        <v>0.08373439232363716</v>
+        <v>0.07805848532574149</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.88776266666666</v>
+        <v>16.87263033333333</v>
       </c>
       <c r="N16">
-        <v>65.66328799999999</v>
+        <v>50.617891</v>
       </c>
       <c r="O16">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="P16">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="Q16">
-        <v>22.02084026368</v>
+        <v>17.369225589304</v>
       </c>
       <c r="R16">
-        <v>198.18756237312</v>
+        <v>156.323030303736</v>
       </c>
       <c r="S16">
-        <v>0.01398613891646599</v>
+        <v>0.01332236380107561</v>
       </c>
       <c r="T16">
-        <v>0.01398613891646599</v>
+        <v>0.01332236380107561</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.469517</v>
+        <v>1.675087666666667</v>
       </c>
       <c r="H17">
-        <v>4.408550999999999</v>
+        <v>5.025263</v>
       </c>
       <c r="I17">
-        <v>0.1223054955910606</v>
+        <v>0.1270164576658104</v>
       </c>
       <c r="J17">
-        <v>0.1223054955910606</v>
+        <v>0.1270164576658104</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>55.56529466666667</v>
+        <v>60.538204</v>
       </c>
       <c r="N17">
-        <v>166.695884</v>
+        <v>181.614612</v>
       </c>
       <c r="O17">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="P17">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="Q17">
-        <v>81.65414512267598</v>
+        <v>101.4067988825507</v>
       </c>
       <c r="R17">
-        <v>734.8873061040839</v>
+        <v>912.661189942956</v>
       </c>
       <c r="S17">
-        <v>0.05186115530180822</v>
+        <v>0.07777999425879886</v>
       </c>
       <c r="T17">
-        <v>0.05186115530180823</v>
+        <v>0.07777999425879886</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.469517</v>
+        <v>1.675087666666667</v>
       </c>
       <c r="H18">
-        <v>4.408550999999999</v>
+        <v>5.025263</v>
       </c>
       <c r="I18">
-        <v>0.1223054955910606</v>
+        <v>0.1270164576658104</v>
       </c>
       <c r="J18">
-        <v>0.1223054955910606</v>
+        <v>0.1270164576658104</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>32.525452</v>
       </c>
       <c r="O18">
-        <v>0.08273603031526086</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="P18">
-        <v>0.08273603031526088</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="Q18">
-        <v>15.932234882228</v>
+        <v>18.16099449931955</v>
       </c>
       <c r="R18">
-        <v>143.390113940052</v>
+        <v>163.448950493876</v>
       </c>
       <c r="S18">
-        <v>0.01011907119094499</v>
+        <v>0.01392965820296903</v>
       </c>
       <c r="T18">
-        <v>0.010119071190945</v>
+        <v>0.01392965820296903</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.469517</v>
+        <v>1.675087666666667</v>
       </c>
       <c r="H19">
-        <v>4.408550999999999</v>
+        <v>5.025263</v>
       </c>
       <c r="I19">
-        <v>0.1223054955910606</v>
+        <v>0.1270164576658104</v>
       </c>
       <c r="J19">
-        <v>0.1223054955910606</v>
+        <v>0.1270164576658104</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>40.13853466666666</v>
+        <v>8.850437666666666</v>
       </c>
       <c r="N19">
-        <v>120.415604</v>
+        <v>26.551313</v>
       </c>
       <c r="O19">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="P19">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="Q19">
-        <v>58.98425904775598</v>
+        <v>14.82525898003544</v>
       </c>
       <c r="R19">
-        <v>530.8583314298039</v>
+        <v>133.427330820319</v>
       </c>
       <c r="S19">
-        <v>0.03746278666247715</v>
+        <v>0.01137111683890045</v>
       </c>
       <c r="T19">
-        <v>0.03746278666247717</v>
+        <v>0.01137111683890045</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.469517</v>
+        <v>1.675087666666667</v>
       </c>
       <c r="H20">
-        <v>4.408550999999999</v>
+        <v>5.025263</v>
       </c>
       <c r="I20">
-        <v>0.1223054955910606</v>
+        <v>0.1270164576658104</v>
       </c>
       <c r="J20">
-        <v>0.1223054955910606</v>
+        <v>0.1270164576658104</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.607653333333333</v>
+        <v>1.757142</v>
       </c>
       <c r="N20">
-        <v>7.82296</v>
+        <v>5.271426</v>
       </c>
       <c r="O20">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="P20">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="Q20">
-        <v>3.831990903439999</v>
+        <v>2.943366892782</v>
       </c>
       <c r="R20">
-        <v>34.48791813096</v>
+        <v>26.490302035038</v>
       </c>
       <c r="S20">
-        <v>0.002433819802532339</v>
+        <v>0.002257590837546062</v>
       </c>
       <c r="T20">
-        <v>0.002433819802532339</v>
+        <v>0.002257590837546062</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.469517</v>
+        <v>1.675087666666667</v>
       </c>
       <c r="H21">
-        <v>4.408550999999999</v>
+        <v>5.025263</v>
       </c>
       <c r="I21">
-        <v>0.1223054955910606</v>
+        <v>0.1270164576658104</v>
       </c>
       <c r="J21">
-        <v>0.1223054955910606</v>
+        <v>0.1270164576658104</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.88776266666666</v>
+        <v>16.87263033333333</v>
       </c>
       <c r="N21">
-        <v>65.66328799999999</v>
+        <v>50.617891</v>
       </c>
       <c r="O21">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="P21">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="Q21">
-        <v>32.16443933063199</v>
+        <v>28.26313497559255</v>
       </c>
       <c r="R21">
-        <v>289.4799539756879</v>
+        <v>254.368214780333</v>
       </c>
       <c r="S21">
-        <v>0.02042866263329789</v>
+        <v>0.021678097527596</v>
       </c>
       <c r="T21">
-        <v>0.0204286626332979</v>
+        <v>0.021678097527596</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.6916763333333334</v>
+        <v>1.357782666666667</v>
       </c>
       <c r="H22">
-        <v>2.075029</v>
+        <v>4.073348</v>
       </c>
       <c r="I22">
-        <v>0.05756708955183302</v>
+        <v>0.102956250011216</v>
       </c>
       <c r="J22">
-        <v>0.05756708955183303</v>
+        <v>0.102956250011216</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>55.56529466666667</v>
+        <v>60.538204</v>
       </c>
       <c r="N22">
-        <v>166.695884</v>
+        <v>181.614612</v>
       </c>
       <c r="O22">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="P22">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="Q22">
-        <v>38.43319927562623</v>
+        <v>82.19772406233068</v>
       </c>
       <c r="R22">
-        <v>345.8987934806361</v>
+        <v>739.779516560976</v>
       </c>
       <c r="S22">
-        <v>0.02441015227560163</v>
+        <v>0.063046448326006</v>
       </c>
       <c r="T22">
-        <v>0.02441015227560163</v>
+        <v>0.063046448326006</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.6916763333333334</v>
+        <v>1.357782666666667</v>
       </c>
       <c r="H23">
-        <v>2.075029</v>
+        <v>4.073348</v>
       </c>
       <c r="I23">
-        <v>0.05756708955183302</v>
+        <v>0.102956250011216</v>
       </c>
       <c r="J23">
-        <v>0.05756708955183303</v>
+        <v>0.102956250011216</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>32.525452</v>
       </c>
       <c r="O23">
-        <v>0.08273603031526086</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="P23">
-        <v>0.08273603031526088</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="Q23">
-        <v>7.499028459789779</v>
+        <v>14.72083165036622</v>
       </c>
       <c r="R23">
-        <v>67.49125613810801</v>
+        <v>132.487484853296</v>
       </c>
       <c r="S23">
-        <v>0.004762872466321793</v>
+        <v>0.01129102006835215</v>
       </c>
       <c r="T23">
-        <v>0.004762872466321795</v>
+        <v>0.01129102006835215</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.6916763333333334</v>
+        <v>1.357782666666667</v>
       </c>
       <c r="H24">
-        <v>2.075029</v>
+        <v>4.073348</v>
       </c>
       <c r="I24">
-        <v>0.05756708955183302</v>
+        <v>0.102956250011216</v>
       </c>
       <c r="J24">
-        <v>0.05756708955183303</v>
+        <v>0.102956250011216</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>40.13853466666666</v>
+        <v>8.850437666666666</v>
       </c>
       <c r="N24">
-        <v>120.415604</v>
+        <v>26.551313</v>
       </c>
       <c r="O24">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="P24">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="Q24">
-        <v>27.76287448361289</v>
+        <v>12.01697085621378</v>
       </c>
       <c r="R24">
-        <v>249.865870352516</v>
+        <v>108.152737705924</v>
       </c>
       <c r="S24">
-        <v>0.01763308822909236</v>
+        <v>0.009217132721909575</v>
       </c>
       <c r="T24">
-        <v>0.01763308822909236</v>
+        <v>0.009217132721909575</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.6916763333333334</v>
+        <v>1.357782666666667</v>
       </c>
       <c r="H25">
-        <v>2.075029</v>
+        <v>4.073348</v>
       </c>
       <c r="I25">
-        <v>0.05756708955183302</v>
+        <v>0.102956250011216</v>
       </c>
       <c r="J25">
-        <v>0.05756708955183303</v>
+        <v>0.102956250011216</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.607653333333333</v>
+        <v>1.757142</v>
       </c>
       <c r="N25">
-        <v>7.82296</v>
+        <v>5.271426</v>
       </c>
       <c r="O25">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="P25">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="Q25">
-        <v>1.803652096204445</v>
+        <v>2.385816950472</v>
       </c>
       <c r="R25">
-        <v>16.23286886584</v>
+        <v>21.472352554248</v>
       </c>
       <c r="S25">
-        <v>0.001145557048342841</v>
+        <v>0.001829944646267584</v>
       </c>
       <c r="T25">
-        <v>0.001145557048342841</v>
+        <v>0.001829944646267584</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.6916763333333334</v>
+        <v>1.357782666666667</v>
       </c>
       <c r="H26">
-        <v>2.075029</v>
+        <v>4.073348</v>
       </c>
       <c r="I26">
-        <v>0.05756708955183302</v>
+        <v>0.102956250011216</v>
       </c>
       <c r="J26">
-        <v>0.05756708955183303</v>
+        <v>0.102956250011216</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>21.88776266666666</v>
+        <v>16.87263033333333</v>
       </c>
       <c r="N26">
-        <v>65.66328799999999</v>
+        <v>50.617891</v>
       </c>
       <c r="O26">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="P26">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="Q26">
-        <v>15.13924742615022</v>
+        <v>22.90936500767423</v>
       </c>
       <c r="R26">
-        <v>136.253226835352</v>
+        <v>206.184285069068</v>
       </c>
       <c r="S26">
-        <v>0.009615419532474389</v>
+        <v>0.01757170424868074</v>
       </c>
       <c r="T26">
-        <v>0.009615419532474391</v>
+        <v>0.01757170424868074</v>
       </c>
     </row>
   </sheetData>
